--- a/result/ck_final_adjusted.xlsx
+++ b/result/ck_final_adjusted.xlsx
@@ -181,19 +181,19 @@
     <t>WSS</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>E</t>
   </si>
   <si>
     <t>B</t>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>55</v>
@@ -686,22 +686,22 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>56</v>
@@ -760,31 +760,31 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4">
+        <v>2024</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4" t="s">
         <v>55</v>
-      </c>
-      <c r="K4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4">
-        <v>2024</v>
-      </c>
-      <c r="M4">
-        <v>5</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>2</v>
-      </c>
-      <c r="R4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K5" t="s">
         <v>61</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -854,25 +854,25 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K6" t="s">
         <v>61</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -928,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K7" t="s">
         <v>61</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -966,22 +966,22 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J8" t="s">
         <v>59</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1022,7 +1022,7 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1031,16 +1031,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9" t="s">
         <v>61</v>
@@ -1064,7 +1064,7 @@
         <v>3</v>
       </c>
       <c r="R9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1078,25 +1078,25 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K10" t="s">
         <v>61</v>
@@ -1120,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="R10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1149,10 +1149,10 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K11" t="s">
         <v>61</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1205,10 +1205,10 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K12" t="s">
         <v>61</v>
@@ -1232,7 +1232,7 @@
         <v>3</v>
       </c>
       <c r="R12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K13" t="s">
         <v>61</v>
@@ -1288,7 +1288,7 @@
         <v>3</v>
       </c>
       <c r="R13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1308,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1317,10 +1317,10 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K14" t="s">
         <v>61</v>
@@ -1344,7 +1344,7 @@
         <v>3</v>
       </c>
       <c r="R14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K15" t="s">
         <v>61</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1414,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1423,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K16" t="s">
         <v>61</v>
@@ -1456,7 +1456,7 @@
         <v>3</v>
       </c>
       <c r="R16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1470,7 +1470,7 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K17" t="s">
         <v>61</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1541,10 +1541,10 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K18" t="s">
         <v>61</v>
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1600,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K19" t="s">
         <v>61</v>
@@ -1624,7 +1624,7 @@
         <v>3</v>
       </c>
       <c r="R19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1653,34 +1653,34 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" t="s">
+        <v>61</v>
+      </c>
+      <c r="L20">
+        <v>2024</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
         <v>56</v>
-      </c>
-      <c r="K20" t="s">
-        <v>61</v>
-      </c>
-      <c r="L20">
-        <v>2024</v>
-      </c>
-      <c r="M20">
-        <v>5</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1700,10 +1700,10 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K21" t="s">
         <v>61</v>
@@ -1753,13 +1753,13 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K22" t="s">
         <v>61</v>
@@ -1792,7 +1792,7 @@
         <v>3</v>
       </c>
       <c r="R22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1821,10 +1821,10 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K23" t="s">
         <v>61</v>
@@ -1848,7 +1848,7 @@
         <v>3</v>
       </c>
       <c r="R23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1877,34 +1877,34 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24" t="s">
+        <v>61</v>
+      </c>
+      <c r="L24">
+        <v>2024</v>
+      </c>
+      <c r="M24">
+        <v>5</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24" t="s">
         <v>56</v>
-      </c>
-      <c r="K24" t="s">
-        <v>61</v>
-      </c>
-      <c r="L24">
-        <v>2024</v>
-      </c>
-      <c r="M24">
-        <v>5</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1921,19 +1921,19 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
         <v>56</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -1977,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1989,10 +1989,10 @@
         <v>1</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K26" t="s">
         <v>61</v>
@@ -2016,7 +2016,7 @@
         <v>3</v>
       </c>
       <c r="R26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2042,13 +2042,13 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K27" t="s">
         <v>61</v>
@@ -2072,7 +2072,7 @@
         <v>3</v>
       </c>
       <c r="R27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2104,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K28" t="s">
         <v>61</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2145,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2154,13 +2154,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K29" t="s">
         <v>61</v>
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -2213,10 +2213,10 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K30" t="s">
         <v>61</v>
@@ -2240,7 +2240,7 @@
         <v>2</v>
       </c>
       <c r="R30" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2263,10 +2263,10 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>4</v>
@@ -2296,7 +2296,7 @@
         <v>3</v>
       </c>
       <c r="R31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2313,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2325,10 +2325,10 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K32" t="s">
         <v>61</v>
@@ -2352,7 +2352,7 @@
         <v>3</v>
       </c>
       <c r="R32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2378,13 +2378,13 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K33" t="s">
         <v>61</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -2440,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K34" t="s">
         <v>61</v>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2478,7 +2478,7 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>1</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J35" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K35" t="s">
         <v>61</v>
@@ -2520,7 +2520,7 @@
         <v>3</v>
       </c>
       <c r="R35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2534,25 +2534,25 @@
         <v>2</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K36" t="s">
         <v>61</v>
@@ -2576,7 +2576,7 @@
         <v>3</v>
       </c>
       <c r="R36" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2590,25 +2590,25 @@
         <v>2</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K37" t="s">
         <v>61</v>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -2664,7 +2664,7 @@
         <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K38" t="s">
         <v>61</v>
@@ -2688,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
